--- a/working/metro_budget_exercise.xlsx
+++ b/working/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NSS\DA14\projects\lookups-da14-robschulteis\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC48189-2FE2-4DC9-8F0C-2F2C273B157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D964C7-30BE-4BA6-914A-085CC90A9928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56:D61"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4279,15 +4279,15 @@
         <v>24</v>
       </c>
       <c r="B56">
-        <f>VLOOKUP(A56,$A$2:$D$52,4)</f>
+        <f>VLOOKUP(A56,$A$2:$D$52,4,0)</f>
         <v>-36209.630000000005</v>
       </c>
       <c r="C56">
-        <f>VLOOKUP(A56,$A$2:$I$52,9)</f>
+        <f>VLOOKUP(A56,$A$2:$I$52,9,0)</f>
         <v>-27292.159999999974</v>
       </c>
       <c r="D56">
-        <f>VLOOKUP(A56,$A$2:$N$52,14)</f>
+        <f>VLOOKUP(A56,$A$2:$N$52,14,0)</f>
         <v>-9181.0800000000163</v>
       </c>
     </row>
@@ -4296,15 +4296,15 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="9">VLOOKUP(A57,$A$2:$D$52,4)</f>
+        <f t="shared" ref="B57:B61" si="9">VLOOKUP(A57,$A$2:$D$52,4,0)</f>
         <v>0</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:C61" si="10">VLOOKUP(A57,$A$2:$I$52,9)</f>
+        <f t="shared" ref="C57:C61" si="10">VLOOKUP(A57,$A$2:$I$52,9,0)</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D61" si="11">VLOOKUP(A57,$A$2:$N$52,14)</f>
+        <f t="shared" ref="D57:D61" si="11">VLOOKUP(A57,$A$2:$N$52,14,0)</f>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -4399,31 +4399,103 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
+      <c r="B65">
+        <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$D$2:$D$52,,0)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65">
+        <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$I$2:$I$52,,0)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D65">
+        <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$N$2:$N$52,,0)</f>
+        <v>-9181.0800000000163</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>25</v>
       </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B70" si="12">_xlfn.XLOOKUP(A66,$A$2:$A$52,$D$2:$D$52,,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C70" si="13">_xlfn.XLOOKUP(A66,$A$2:$A$52,$I$2:$I$52,,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D70" si="14">_xlfn.XLOOKUP(A66,$A$2:$A$52,$N$2:$N$52,,0)</f>
+        <v>-311228.08999999997</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>32</v>
       </c>
+      <c r="B67">
+        <f t="shared" si="12"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="13"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="14"/>
+        <v>-374962.91000000015</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>38</v>
       </c>
+      <c r="B68">
+        <f t="shared" si="12"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="13"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="14"/>
+        <v>-72.879999999888241</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>39</v>
       </c>
+      <c r="B69">
+        <f t="shared" si="12"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="13"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="14"/>
+        <v>-1724.9000000000233</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>55</v>
       </c>
+      <c r="B70">
+        <f t="shared" si="12"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="13"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="14"/>
+        <v>-82077.349999999627</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
@@ -4448,30 +4520,102 @@
       <c r="A74" t="s">
         <v>24</v>
       </c>
+      <c r="B74">
+        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),4)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74">
+        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),9)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D74">
+        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),14)</f>
+        <v>-9181.0800000000163</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>25</v>
       </c>
+      <c r="B75">
+        <f t="shared" ref="B75:B79" si="15">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),4)</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:C79" si="16">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),9)</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:D79" si="17">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),14)</f>
+        <v>-311228.08999999997</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>32</v>
       </c>
+      <c r="B76">
+        <f t="shared" si="15"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="16"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="17"/>
+        <v>-374962.91000000015</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>38</v>
       </c>
+      <c r="B77">
+        <f t="shared" si="15"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="16"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="17"/>
+        <v>-72.879999999888241</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>39</v>
       </c>
+      <c r="B78">
+        <f t="shared" si="15"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="16"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="17"/>
+        <v>-1724.9000000000233</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>55</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="15"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="16"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="17"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">

--- a/working/metro_budget_exercise.xlsx
+++ b/working/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NSS\DA14\projects\lookups-da14-robschulteis\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D964C7-30BE-4BA6-914A-085CC90A9928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0137A9-9289-40F0-AB5F-2591AF4FE71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>Department</t>
   </si>
@@ -4627,6 +4627,9 @@
       <c r="A82" t="s">
         <v>0</v>
       </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
@@ -4640,22 +4643,40 @@
       <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+      <c r="B84" s="6">
+        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),2)</f>
+        <v>7670700</v>
+      </c>
+      <c r="C84" s="6">
+        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),3)</f>
+        <v>6947552.6699999999</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="B85" s="6">
+        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),7)</f>
+        <v>7968300</v>
+      </c>
+      <c r="C85" s="6">
+        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),8)</f>
+        <v>7020609.3200000003</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="6">
+        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),12)</f>
+        <v>7759600</v>
+      </c>
+      <c r="C86" s="6">
+        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),13)</f>
+        <v>7497322.9100000001</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
@@ -4791,11 +4812,14 @@
       <c r="I100" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B82" xr:uid="{643DB0B1-33B9-4C6A-828C-54E93CA528D3}">
+      <formula1>$A$2:$A$52</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working/metro_budget_exercise.xlsx
+++ b/working/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NSS\DA14\projects\lookups-da14-robschulteis\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0137A9-9289-40F0-AB5F-2591AF4FE71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2D0C7C-D243-4D1C-86E6-56A822A6DF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4279,15 +4301,15 @@
         <v>24</v>
       </c>
       <c r="B56">
-        <f>VLOOKUP(A56,$A$2:$D$52,4,0)</f>
+        <f>VLOOKUP($A56,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
         <v>-36209.630000000005</v>
       </c>
       <c r="C56">
-        <f>VLOOKUP(A56,$A$2:$I$52,9,0)</f>
+        <f t="shared" ref="C56:D61" si="9">VLOOKUP($A56,$A$2:$P$52,MATCH(C$55,$A$1:$P$1,0),0)</f>
         <v>-27292.159999999974</v>
       </c>
       <c r="D56">
-        <f>VLOOKUP(A56,$A$2:$N$52,14,0)</f>
+        <f t="shared" si="9"/>
         <v>-9181.0800000000163</v>
       </c>
     </row>
@@ -4296,15 +4318,15 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="9">VLOOKUP(A57,$A$2:$D$52,4,0)</f>
+        <f t="shared" ref="B57:B61" si="10">VLOOKUP($A57,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
         <v>0</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:C61" si="10">VLOOKUP(A57,$A$2:$I$52,9,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D61" si="11">VLOOKUP(A57,$A$2:$N$52,14,0)</f>
+        <f t="shared" si="9"/>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -4313,15 +4335,15 @@
         <v>32</v>
       </c>
       <c r="B58">
+        <f t="shared" si="10"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C58">
         <f t="shared" si="9"/>
-        <v>-149396.10000000987</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="10"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="D58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -4330,15 +4352,15 @@
         <v>38</v>
       </c>
       <c r="B59">
+        <f t="shared" si="10"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C59">
         <f t="shared" si="9"/>
-        <v>-12230.810000000056</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="10"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="D59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -4347,15 +4369,15 @@
         <v>39</v>
       </c>
       <c r="B60">
+        <f t="shared" si="10"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C60">
         <f t="shared" si="9"/>
-        <v>-4950.4699999999721</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="10"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -4364,15 +4386,15 @@
         <v>55</v>
       </c>
       <c r="B61">
+        <f t="shared" si="10"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C61">
         <f t="shared" si="9"/>
-        <v>-184239.79000001028</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="10"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="D61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -4399,16 +4421,16 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65">
-        <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$D$2:$D$52,,0)</f>
+      <c r="B65" cm="1">
+        <f t="array" ref="B65">_xlfn.XLOOKUP($A65,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)),,0)</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C65">
-        <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$I$2:$I$52,,0)</f>
+      <c r="C65" cm="1">
+        <f t="array" ref="C65">_xlfn.XLOOKUP($A65,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)),,0)</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D65">
-        <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$N$2:$N$52,,0)</f>
+      <c r="D65" cm="1">
+        <f t="array" ref="D65">_xlfn.XLOOKUP($A65,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)),,0)</f>
         <v>-9181.0800000000163</v>
       </c>
     </row>
@@ -4416,16 +4438,16 @@
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66">
-        <f t="shared" ref="B66:B70" si="12">_xlfn.XLOOKUP(A66,$A$2:$A$52,$D$2:$D$52,,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C70" si="13">_xlfn.XLOOKUP(A66,$A$2:$A$52,$I$2:$I$52,,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ref="D66:D70" si="14">_xlfn.XLOOKUP(A66,$A$2:$A$52,$N$2:$N$52,,0)</f>
+      <c r="B66" cm="1">
+        <f t="array" ref="B66">_xlfn.XLOOKUP($A66,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)),,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" cm="1">
+        <f t="array" ref="C66">_xlfn.XLOOKUP($A66,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)),,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" cm="1">
+        <f t="array" ref="D66">_xlfn.XLOOKUP($A66,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)),,0)</f>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -4433,16 +4455,16 @@
       <c r="A67" t="s">
         <v>32</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="12"/>
+      <c r="B67" cm="1">
+        <f t="array" ref="B67">_xlfn.XLOOKUP($A67,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)),,0)</f>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C67">
-        <f t="shared" si="13"/>
+      <c r="C67" cm="1">
+        <f t="array" ref="C67">_xlfn.XLOOKUP($A67,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)),,0)</f>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D67">
-        <f t="shared" si="14"/>
+      <c r="D67" cm="1">
+        <f t="array" ref="D67">_xlfn.XLOOKUP($A67,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)),,0)</f>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -4450,16 +4472,16 @@
       <c r="A68" t="s">
         <v>38</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="12"/>
+      <c r="B68" cm="1">
+        <f t="array" ref="B68">_xlfn.XLOOKUP($A68,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)),,0)</f>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C68">
-        <f t="shared" si="13"/>
+      <c r="C68" cm="1">
+        <f t="array" ref="C68">_xlfn.XLOOKUP($A68,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)),,0)</f>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="14"/>
+      <c r="D68" cm="1">
+        <f t="array" ref="D68">_xlfn.XLOOKUP($A68,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)),,0)</f>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -4467,16 +4489,16 @@
       <c r="A69" t="s">
         <v>39</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="12"/>
+      <c r="B69" cm="1">
+        <f t="array" ref="B69">_xlfn.XLOOKUP($A69,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)),,0)</f>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C69">
-        <f t="shared" si="13"/>
+      <c r="C69" cm="1">
+        <f t="array" ref="C69">_xlfn.XLOOKUP($A69,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)),,0)</f>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="14"/>
+      <c r="D69" cm="1">
+        <f t="array" ref="D69">_xlfn.XLOOKUP($A69,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)),,0)</f>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -4484,16 +4506,16 @@
       <c r="A70" t="s">
         <v>55</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="12"/>
+      <c r="B70" cm="1">
+        <f t="array" ref="B70">_xlfn.XLOOKUP($A70,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)),,0)</f>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C70">
-        <f t="shared" si="13"/>
+      <c r="C70" cm="1">
+        <f t="array" ref="C70">_xlfn.XLOOKUP($A70,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)),,0)</f>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="14"/>
+      <c r="D70" cm="1">
+        <f t="array" ref="D70">_xlfn.XLOOKUP($A70,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)),,0)</f>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -4521,15 +4543,15 @@
         <v>24</v>
       </c>
       <c r="B74">
-        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),4)</f>
+        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
         <v>-36209.630000000005</v>
       </c>
       <c r="C74">
-        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),9)</f>
+        <f t="shared" ref="C74:D79" si="11">INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$A$1:$P$1,0))</f>
         <v>-27292.159999999974</v>
       </c>
       <c r="D74">
-        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),14)</f>
+        <f t="shared" si="11"/>
         <v>-9181.0800000000163</v>
       </c>
     </row>
@@ -4538,15 +4560,15 @@
         <v>25</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:B79" si="15">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),4)</f>
+        <f t="shared" ref="B75:B79" si="12">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
         <v>0</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C79" si="16">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),9)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75:D79" si="17">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),14)</f>
+        <f t="shared" si="11"/>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -4555,15 +4577,15 @@
         <v>32</v>
       </c>
       <c r="B76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="D76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -4572,15 +4594,15 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="D77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -4589,15 +4611,15 @@
         <v>39</v>
       </c>
       <c r="B78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -4606,15 +4628,15 @@
         <v>55</v>
       </c>
       <c r="B79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="D79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -4812,7 +4834,7 @@
       <c r="I100" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>

--- a/working/metro_budget_exercise.xlsx
+++ b/working/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NSS\DA14\projects\lookups-da14-robschulteis\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2D0C7C-D243-4D1C-86E6-56A822A6DF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E22DC7D-1F90-4F52-B919-6E040827F4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91:G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1209,7 +1209,7 @@
     <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.54296875" customWidth="1"/>
     <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="15.81640625" customWidth="1"/>
@@ -1287,7 +1287,7 @@
         <v>-4.3170750765267295E-2</v>
       </c>
       <c r="F2">
-        <f>_xlfn.RANK.EQ(E2,E2:E89,1)</f>
+        <f>_xlfn.RANK.EQ(E2,$E$2:$E$89,1)</f>
         <v>14</v>
       </c>
       <c r="G2">
@@ -1305,7 +1305,7 @@
         <v>-9.4972027086493035E-2</v>
       </c>
       <c r="K2">
-        <f>_xlfn.RANK.EQ(J2,J2:J52,1)</f>
+        <f>_xlfn.RANK.EQ(J2,$J$2:$J$52,1)</f>
         <v>10</v>
       </c>
       <c r="L2">
@@ -1323,7 +1323,7 @@
         <v>-5.6484362894991494E-2</v>
       </c>
       <c r="P2">
-        <f>_xlfn.RANK.EQ(O2,O2:O52,1)</f>
+        <f>_xlfn.RANK.EQ(O2,$O$2:$O$52,1)</f>
         <v>14</v>
       </c>
     </row>
@@ -1346,8 +1346,8 @@
         <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F52" si="2">_xlfn.RANK.EQ(E3,E3:E90,1)</f>
-        <v>21</v>
+        <f t="shared" ref="F3:F52" si="2">_xlfn.RANK.EQ(E3,$E$2:$E$89,1)</f>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>334800</v>
@@ -1364,8 +1364,8 @@
         <v>-6.6804928315415249E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K52" si="5">_xlfn.RANK.EQ(J3,J3:J53,1)</f>
-        <v>13</v>
+        <f t="shared" ref="K3:K52" si="5">_xlfn.RANK.EQ(J3,$J$2:$J$52,1)</f>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>322700</v>
@@ -1382,8 +1382,8 @@
         <v>-1.3540749922529313E-3</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P52" si="8">_xlfn.RANK.EQ(O3,O3:O53,1)</f>
-        <v>36</v>
+        <f t="shared" ref="P3:P52" si="8">_xlfn.RANK.EQ(O3,$O$2:$O$52,1)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>3652300</v>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4">
         <v>3662400</v>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="P4">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="P5">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>428500</v>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L6">
         <v>445200</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="P6">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>3345200</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>11073700</v>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>10790500</v>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>495200</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L10">
         <v>487500</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L11">
         <v>375000</v>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>4700400</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>4677800</v>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>6223700</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L13">
         <v>6207300</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>530500</v>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L14">
         <v>526200</v>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>184167800</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L15">
         <v>188953500</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>7352500</v>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L16">
         <v>7397200</v>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <v>15309700</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L17">
         <v>15311800</v>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2861000</v>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L18">
         <v>2910600</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>9713300</v>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L19">
         <v>9343000</v>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="P19">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>131849400</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="L20">
         <v>130621400</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>24497400</v>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L21">
         <v>24323000</v>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>11980700</v>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>11935200</v>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G23">
         <v>22683800</v>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L23">
         <v>23220300</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>1112700</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L24">
         <v>1112600</v>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>505200</v>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L25">
         <v>496500</v>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="P25">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>5442200</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="L26">
         <v>5430700</v>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="P26">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>1545700</v>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="P28">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G29">
         <v>2779500</v>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L29">
         <v>2889900</v>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>12735900</v>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="K30">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="L30">
         <v>12861300</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>1823300</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="K31">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="L31">
         <v>1870700</v>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>6195500</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L32">
         <v>6157400</v>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="P32">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>979671000</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L33">
         <v>989572899.99999905</v>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="P33">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G34">
         <v>4350600</v>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="K34">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L34">
         <v>4345600</v>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="P34">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="P35">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>898700</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="P36">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G37">
         <v>2229200</v>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="K37">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L37">
         <v>2296900</v>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="P37">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G38">
         <v>792800</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="K38">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="L38">
         <v>777800</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>1294400</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="K39">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39">
         <v>1759500</v>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="P39">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G40">
         <v>39964900</v>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="K40">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="L40">
         <v>40216700</v>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="P40">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G41">
         <v>5089500</v>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="K41">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="L41">
         <v>4799900</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="P41">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>199130300</v>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="K42">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="L42">
         <v>199954600</v>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G43">
         <v>8560800</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="K43">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="L43">
         <v>8497500</v>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="P43">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>31040700</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="K44">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="L44">
         <v>31282200</v>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="P44">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>56792200</v>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="K45">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L45">
         <v>56027100</v>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="P45">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>266000</v>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="K46">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="L46">
         <v>267100</v>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="P46">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>73467000</v>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="K47">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="L47">
         <v>75072800</v>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G48">
         <v>7214700</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K48">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="L48">
         <v>7289800</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="P48">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G49">
         <v>102600</v>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="K49">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="P49">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="G50">
         <v>859100</v>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="K50">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="L50">
         <v>843200</v>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="P50">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>8925500</v>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="K51">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="L51">
         <v>8833900</v>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="P51">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G52">
         <v>2440700</v>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="K52">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L52">
         <v>2321600</v>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="P52">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
@@ -4745,25 +4745,88 @@
       <c r="A91" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="G91" s="5"/>
+      <c r="B91" t="str" cm="1">
+        <f t="array" ref="B91">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH($A91&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52,,0)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="C91" s="5" cm="1">
+        <f t="array" ref="C91">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH($A91&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A91&amp;"_diff_pct",$A$1:$P$1,0)),,0)</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="D91" t="str" cm="1">
+        <f t="array" ref="D91">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH($A91&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52,,0)</f>
+        <v>Circuit Court Clerk</v>
+      </c>
+      <c r="E91" s="5" cm="1">
+        <f t="array" ref="E91">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH($A91&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A91&amp;"_diff_pct",$A$1:$P$1,0)),,0)</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F91" t="str" cm="1">
+        <f t="array" ref="F91">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH($A91&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52,,0)</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="G91" s="5" cm="1">
+        <f t="array" ref="G91">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH($A91&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A91&amp;"_diff_pct",$A$1:$P$1,0)),,0)</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="G92" s="5"/>
+      <c r="B92" t="str" cm="1">
+        <f t="array" ref="B92">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH($A92&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52,,0)</f>
+        <v>Metropolitan Clerk</v>
+      </c>
+      <c r="C92" s="5" cm="1">
+        <f t="array" ref="C92">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH($A92&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A92&amp;"_diff_pct",$A$1:$P$1,0)),,0)</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="D92" t="str" cm="1">
+        <f t="array" ref="D92">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH($A92&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52,,0)</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="E92" s="5" cm="1">
+        <f t="array" ref="E92">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH($A92&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A92&amp;"_diff_pct",$A$1:$P$1,0)),,0)</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="F92" t="str" cm="1">
+        <f t="array" ref="F92">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH($A92&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52,,0)</f>
+        <v>Office of Family Safety</v>
+      </c>
+      <c r="G92" s="5" cm="1">
+        <f t="array" ref="G92">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH($A92&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A92&amp;"_diff_pct",$A$1:$P$1,0)),,0)</f>
+        <v>-0.13918241656366656</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>75</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="G93" s="5"/>
+      <c r="B93" t="str" cm="1">
+        <f t="array" ref="B93">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH($A93&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52,,0)</f>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="C93" s="5" cm="1">
+        <f t="array" ref="C93">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH($A93&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A93&amp;"_diff_pct",$A$1:$P$1,0)),,0)</f>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="D93" t="str" cm="1">
+        <f t="array" ref="D93">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH($A93&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52,,0)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="E93" s="5" cm="1">
+        <f t="array" ref="E93">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH($A93&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A93&amp;"_diff_pct",$A$1:$P$1,0)),,0)</f>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="F93" t="str" cm="1">
+        <f t="array" ref="F93">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH($A93&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52,,0)</f>
+        <v>Election Commission</v>
+      </c>
+      <c r="G93" s="5" cm="1">
+        <f t="array" ref="G93">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH($A93&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A93&amp;"_diff_pct",$A$1:$P$1,0)),,0)</f>
+        <v>-0.12882667147667154</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">

--- a/working/metro_budget_exercise.xlsx
+++ b/working/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NSS\DA14\projects\lookups-da14-robschulteis\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E22DC7D-1F90-4F52-B919-6E040827F4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5332E2E-69DF-4E5D-9B91-9BCF16740E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,7 +787,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -830,8 +830,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -843,8 +844,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -884,6 +886,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1198,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91:G93"/>
+    <sheetView tabSelected="1" topLeftCell="B84" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4816,8 +4819,8 @@
         <v>Clerk and Master - Chancery</v>
       </c>
       <c r="E93" s="5" cm="1">
-        <f t="array" ref="E93">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH($A93&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A93&amp;"_diff_pct",$A$1:$P$1,0)),,0)</f>
-        <v>-0.82994157333333329</v>
+        <f t="array" ref="E93">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH($A93&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A93&amp;"_diff_pct",$A$1:$P$1,0)),,0)</f>
+        <v>-0.15295680364719175</v>
       </c>
       <c r="F93" t="str" cm="1">
         <f t="array" ref="F93">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH($A93&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52,,0)</f>
@@ -4873,28 +4876,94 @@
       <c r="A98" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="B98" t="str">
+        <f>INDEX($A$2:$A$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH($A98&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="C98" s="5">
+        <f>INDEX($A$2:$P$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH($A98&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A98&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="D98" t="str">
+        <f>INDEX($A$2:$A$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH($A98&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Circuit Court Clerk</v>
+      </c>
+      <c r="E98" s="5">
+        <f>INDEX($A$2:$P$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH($A98&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A98&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F98" t="str">
+        <f>INDEX($A$2:$A$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH($A98&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="G98" s="5">
+        <f>INDEX($A$2:$P$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH($A98&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A98&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>74</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="B99" t="str">
+        <f t="shared" ref="B99:B100" si="13">INDEX($A$2:$A$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH($A99&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Metropolitan Clerk</v>
+      </c>
+      <c r="C99" s="5">
+        <f t="shared" ref="C99:C100" si="14">INDEX($A$2:$P$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH($A99&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A99&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" ref="D99:D100" si="15">INDEX($A$2:$A$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH($A99&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" ref="E99:E100" si="16">INDEX($A$2:$P$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH($A99&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A99&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" ref="F99:F100" si="17">INDEX($A$2:$A$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH($A99&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Office of Family Safety</v>
+      </c>
+      <c r="G99" s="5">
+        <f t="shared" ref="G99:G100" si="18">INDEX($A$2:$P$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH($A99&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A99&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.13918241656366656</v>
+      </c>
       <c r="I99" s="4"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>75</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="B100" t="str">
+        <f t="shared" si="13"/>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="C100" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="D100" t="str">
+        <f>INDEX($A$2:$A$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH($A100&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="E100" s="5">
+        <f t="shared" si="16"/>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="17"/>
+        <v>Election Commission</v>
+      </c>
+      <c r="G100" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.12882667147667154</v>
+      </c>
       <c r="I100" s="4"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C102" s="9"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="3">
